--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 7.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 7.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -726,7 +726,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -864,7 +864,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -887,7 +887,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -910,7 +910,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -956,7 +956,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -983,7 +983,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1029,7 +1029,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1079,7 +1079,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1171,7 +1171,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1217,7 +1217,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1309,7 +1309,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1332,7 +1332,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1355,7 +1355,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1424,7 +1424,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1608,7 +1608,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1631,7 +1631,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1700,7 +1700,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1746,7 +1746,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1838,7 +1838,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1861,7 +1861,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1884,7 +1884,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1907,7 +1907,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1930,7 +1930,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1953,7 +1953,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1999,7 +1999,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2206,7 +2206,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2229,7 +2229,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2394,7 +2394,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2509,7 +2509,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2624,7 +2624,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2647,7 +2647,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2670,7 +2670,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2693,7 +2693,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2877,7 +2877,7 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -2900,7 +2900,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2923,7 +2923,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2946,7 +2946,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3015,7 +3015,7 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3199,7 +3199,7 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3222,7 +3222,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3245,7 +3245,7 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3314,7 +3314,7 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3360,7 +3360,7 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3406,7 +3406,7 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3429,7 +3429,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3475,7 +3475,7 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3594,7 +3594,7 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3640,7 +3640,7 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3709,7 +3709,7 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -3847,7 +3847,7 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -3916,7 +3916,7 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4100,7 +4100,7 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4150,7 +4150,7 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4173,7 +4173,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4196,7 +4196,7 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4311,7 +4311,7 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4334,7 +4334,7 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4357,7 +4357,7 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4380,7 +4380,7 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4723,7 +4723,7 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -4746,7 +4746,7 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -4769,7 +4769,7 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -4815,7 +4815,7 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -4930,7 +4930,7 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -4953,7 +4953,7 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5091,7 +5091,7 @@
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5181,7 +5181,7 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5319,7 +5319,7 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -5342,7 +5342,7 @@
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -5365,7 +5365,7 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -5434,7 +5434,7 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -5457,7 +5457,7 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -5503,7 +5503,7 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -5526,7 +5526,7 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -5549,7 +5549,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -5572,7 +5572,7 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -5641,7 +5641,7 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -5664,7 +5664,7 @@
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -5687,7 +5687,7 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -5779,7 +5779,7 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -5802,7 +5802,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
